--- a/KRW-WEMIX.xlsx
+++ b/KRW-WEMIX.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:AU43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,10 +435,773 @@
       <c r="D2" t="str">
         <v>10000.000</v>
       </c>
+      <c r="F2">
+        <v>-180.098</v>
+      </c>
+      <c r="G2">
+        <v>-18009.800000000003</v>
+      </c>
+      <c r="H2">
+        <v>-315.697</v>
+      </c>
+      <c r="I2">
+        <v>-31569.7</v>
+      </c>
+      <c r="J2">
+        <v>-442.468</v>
+      </c>
+      <c r="K2">
+        <v>-44246.8</v>
+      </c>
+      <c r="L2">
+        <v>-569.239</v>
+      </c>
+      <c r="M2">
+        <v>-56923.9</v>
+      </c>
+      <c r="N2">
+        <v>-687.1020000000001</v>
+      </c>
+      <c r="O2">
+        <v>-68710.20000000001</v>
+      </c>
+      <c r="P2">
+        <v>-804.9810000000001</v>
+      </c>
+      <c r="Q2">
+        <v>-80498.1</v>
+      </c>
+      <c r="R2">
+        <v>-986.8370000000001</v>
+      </c>
+      <c r="S2">
+        <v>-98683.70000000001</v>
+      </c>
+      <c r="T2">
+        <v>-1224.141</v>
+      </c>
+      <c r="U2">
+        <v>-122414.1</v>
+      </c>
+      <c r="V2">
+        <v>-1443.422</v>
+      </c>
+      <c r="W2">
+        <v>-144342.2</v>
+      </c>
+      <c r="X2">
+        <v>-1593.122</v>
+      </c>
+      <c r="Y2">
+        <v>-159312.2</v>
+      </c>
+      <c r="Z2">
+        <v>-1703.0720000000001</v>
+      </c>
+      <c r="AA2">
+        <v>-170307.2</v>
+      </c>
+      <c r="AB2">
+        <v>-1902.672</v>
+      </c>
+      <c r="AC2">
+        <v>-190267.2</v>
+      </c>
+      <c r="AD2">
+        <v>-1863.233</v>
+      </c>
+      <c r="AE2">
+        <v>-186323.3</v>
+      </c>
+      <c r="AF2">
+        <v>-2029.503</v>
+      </c>
+      <c r="AG2">
+        <v>-202950.3</v>
+      </c>
+      <c r="AH2">
+        <v>-2224.174</v>
+      </c>
+      <c r="AI2">
+        <v>-222417.4</v>
+      </c>
+      <c r="AJ2">
+        <v>-2420.12</v>
+      </c>
+      <c r="AK2">
+        <v>-242012</v>
+      </c>
+      <c r="AL2">
+        <v>-2711.081</v>
+      </c>
+      <c r="AM2">
+        <v>-271108.10000000003</v>
+      </c>
+      <c r="AN2">
+        <v>-2907.871</v>
+      </c>
+      <c r="AO2">
+        <v>-290787.10000000003</v>
+      </c>
+      <c r="AP2">
+        <v>-3085.1530000000002</v>
+      </c>
+      <c r="AQ2">
+        <v>-308515.30000000005</v>
+      </c>
+      <c r="AR2">
+        <v>-3243.1140000000005</v>
+      </c>
+      <c r="AS2">
+        <v>-324311.4</v>
+      </c>
+      <c r="AT2">
+        <v>-3651.2560000000003</v>
+      </c>
+      <c r="AU2">
+        <v>-365125.60000000003</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2022-05-31T17:29:49+09:00</v>
+      </c>
+      <c r="B3" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C3" t="str">
+        <v>5545.0</v>
+      </c>
+      <c r="D3" t="str">
+        <v>9919.499</v>
+      </c>
+      <c r="E3" t="str">
+        <v>-180.098</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2022-05-31T17:45:33+09:00</v>
+      </c>
+      <c r="B4" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C4" t="str">
+        <v>5590.0</v>
+      </c>
+      <c r="D4" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2022-05-31T18:00:39+09:00</v>
+      </c>
+      <c r="B5" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C5" t="str">
+        <v>5570.0</v>
+      </c>
+      <c r="D5" t="str">
+        <v>9964.222</v>
+      </c>
+      <c r="E5" t="str">
+        <v>-135.599</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2022-05-31T18:00:40+09:00</v>
+      </c>
+      <c r="B6" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C6" t="str">
+        <v>5575.0</v>
+      </c>
+      <c r="D6" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2022-05-31T18:15:01+09:00</v>
+      </c>
+      <c r="B7" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C7" t="str">
+        <v>5560.0</v>
+      </c>
+      <c r="D7" t="str">
+        <v>9973.094</v>
+      </c>
+      <c r="E7" t="str">
+        <v>-126.771</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2022-05-31T18:17:04+09:00</v>
+      </c>
+      <c r="B8" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C8" t="str">
+        <v>5575.0</v>
+      </c>
+      <c r="D8" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2022-05-31T18:30:01+09:00</v>
+      </c>
+      <c r="B9" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C9" t="str">
+        <v>5560.0</v>
+      </c>
+      <c r="D9" t="str">
+        <v>9973.094</v>
+      </c>
+      <c r="E9" t="str">
+        <v>-126.771</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2022-05-31T18:32:21+09:00</v>
+      </c>
+      <c r="B10" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C10" t="str">
+        <v>5570.0</v>
+      </c>
+      <c r="D10" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2022-05-31T18:45:02+09:00</v>
+      </c>
+      <c r="B11" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C11" t="str">
+        <v>5560.0</v>
+      </c>
+      <c r="D11" t="str">
+        <v>9982.047</v>
+      </c>
+      <c r="E11" t="str">
+        <v>-117.863</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2022-05-31T18:45:08+09:00</v>
+      </c>
+      <c r="B12" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C12" t="str">
+        <v>5565.0</v>
+      </c>
+      <c r="D12" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2022-05-31T21:49:19+09:00</v>
+      </c>
+      <c r="B13" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C13" t="str">
+        <v>5555.0</v>
+      </c>
+      <c r="D13" t="str">
+        <v>9982.031</v>
+      </c>
+      <c r="E13" t="str">
+        <v>-117.879</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2022-06-01T01:01:25+09:00</v>
+      </c>
+      <c r="B14" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C14" t="str">
+        <v>5470.0</v>
+      </c>
+      <c r="D14" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2022-06-01T01:14:47+09:00</v>
+      </c>
+      <c r="B15" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C15" t="str">
+        <v>5425.0</v>
+      </c>
+      <c r="D15" t="str">
+        <v>9917.733</v>
+      </c>
+      <c r="E15" t="str">
+        <v>-181.856</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2022-06-01T01:20:40+09:00</v>
+      </c>
+      <c r="B16" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C16" t="str">
+        <v>5435.0</v>
+      </c>
+      <c r="D16" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2022-06-01T03:45:20+09:00</v>
+      </c>
+      <c r="B17" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C17" t="str">
+        <v>5360.0</v>
+      </c>
+      <c r="D17" t="str">
+        <v>9862.006</v>
+      </c>
+      <c r="E17" t="str">
+        <v>-237.304</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2022-06-01T14:25:27+09:00</v>
+      </c>
+      <c r="B18" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C18" t="str">
+        <v>5005.0</v>
+      </c>
+      <c r="D18" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2022-06-01T19:57:56+09:00</v>
+      </c>
+      <c r="B19" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C19" t="str">
+        <v>4945.0</v>
+      </c>
+      <c r="D19" t="str">
+        <v>9880.120</v>
+      </c>
+      <c r="E19" t="str">
+        <v>-219.281</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2022-06-01T20:38:03+09:00</v>
+      </c>
+      <c r="B20" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C20" t="str">
+        <v>5005.0</v>
+      </c>
+      <c r="D20" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2022-06-01T20:45:00+09:00</v>
+      </c>
+      <c r="B21" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C21" t="str">
+        <v>4980.0</v>
+      </c>
+      <c r="D21" t="str">
+        <v>9950.050</v>
+      </c>
+      <c r="E21" t="str">
+        <v>-149.700</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2022-06-01T20:50:08+09:00</v>
+      </c>
+      <c r="B22" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C22" t="str">
+        <v>5000.0</v>
+      </c>
+      <c r="D22" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2022-06-01T21:00:00+09:00</v>
+      </c>
+      <c r="B23" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C23" t="str">
+        <v>4995.0</v>
+      </c>
+      <c r="D23" t="str">
+        <v>9990.000</v>
+      </c>
+      <c r="E23" t="str">
+        <v>-109.950</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2022-06-01T21:00:02+09:00</v>
+      </c>
+      <c r="B24" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C24" t="str">
+        <v>4995.0</v>
+      </c>
+      <c r="D24" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2022-06-01T21:15:08+09:00</v>
+      </c>
+      <c r="B25" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C25" t="str">
+        <v>4945.0</v>
+      </c>
+      <c r="D25" t="str">
+        <v>9899.900</v>
+      </c>
+      <c r="E25" t="str">
+        <v>-199.600</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2022-06-01T22:36:48+09:00</v>
+      </c>
+      <c r="B26" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C26" t="str">
+        <v>4995.0</v>
+      </c>
+      <c r="D26" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2022-06-02T00:15:08+09:00</v>
+      </c>
+      <c r="B27" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C27" t="str">
+        <v>5065.0</v>
+      </c>
+      <c r="D27" t="str">
+        <v>10140.140</v>
+      </c>
+      <c r="E27" t="str">
+        <v>39.439</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2022-06-02T01:25:09+09:00</v>
+      </c>
+      <c r="B28" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C28" t="str">
+        <v>5255.0</v>
+      </c>
+      <c r="D28" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2022-06-02T01:25:27+09:00</v>
+      </c>
+      <c r="B29" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C29" t="str">
+        <v>5220.0</v>
+      </c>
+      <c r="D29" t="str">
+        <v>9933.397</v>
+      </c>
+      <c r="E29" t="str">
+        <v>-166.270</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2022-06-02T01:26:55+09:00</v>
+      </c>
+      <c r="B30" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C30" t="str">
+        <v>5255.0</v>
+      </c>
+      <c r="D30" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2022-06-02T01:27:41+09:00</v>
+      </c>
+      <c r="B31" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C31" t="str">
+        <v>5205.0</v>
+      </c>
+      <c r="D31" t="str">
+        <v>9904.853</v>
+      </c>
+      <c r="E31" t="str">
+        <v>-194.671</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2022-06-02T01:30:44+09:00</v>
+      </c>
+      <c r="B32" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C32" t="str">
+        <v>5175.0</v>
+      </c>
+      <c r="D32" t="str">
+        <v>9990.347</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2022-06-02T01:34:30+09:00</v>
+      </c>
+      <c r="B33" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C33" t="str">
+        <v>5125.0</v>
+      </c>
+      <c r="D33" t="str">
+        <v>9893.822</v>
+      </c>
+      <c r="E33" t="str">
+        <v>-195.946</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2022-06-02T01:34:54+09:00</v>
+      </c>
+      <c r="B34" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C34" t="str">
+        <v>5180.0</v>
+      </c>
+      <c r="D34" t="str">
+        <v>9961.538</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2022-06-02T02:22:03+09:00</v>
+      </c>
+      <c r="B35" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C35" t="str">
+        <v>5080.0</v>
+      </c>
+      <c r="D35" t="str">
+        <v>9769.231</v>
+      </c>
+      <c r="E35" t="str">
+        <v>-290.961</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2022-06-02T02:46:04+09:00</v>
+      </c>
+      <c r="B36" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C36" t="str">
+        <v>5140.0</v>
+      </c>
+      <c r="D36" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2022-06-02T03:03:06+09:00</v>
+      </c>
+      <c r="B37" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C37" t="str">
+        <v>5090.0</v>
+      </c>
+      <c r="D37" t="str">
+        <v>9902.724</v>
+      </c>
+      <c r="E37" t="str">
+        <v>-196.790</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2022-06-02T03:33:04+09:00</v>
+      </c>
+      <c r="B38" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C38" t="str">
+        <v>5150.0</v>
+      </c>
+      <c r="D38" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2022-06-02T03:36:35+09:00</v>
+      </c>
+      <c r="B39" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C39" t="str">
+        <v>5110.0</v>
+      </c>
+      <c r="D39" t="str">
+        <v>9922.330</v>
+      </c>
+      <c r="E39" t="str">
+        <v>-177.282</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2022-06-02T03:38:03+09:00</v>
+      </c>
+      <c r="B40" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C40" t="str">
+        <v>5150.0</v>
+      </c>
+      <c r="D40" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2022-06-02T03:45:00+09:00</v>
+      </c>
+      <c r="B41" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C41" t="str">
+        <v>5120.0</v>
+      </c>
+      <c r="D41" t="str">
+        <v>9941.748</v>
+      </c>
+      <c r="E41" t="str">
+        <v>-157.961</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2022-06-02T08:30:02+09:00</v>
+      </c>
+      <c r="B42" t="str">
+        <v>bid</v>
+      </c>
+      <c r="C42" t="str">
+        <v>5005.0</v>
+      </c>
+      <c r="D42" t="str">
+        <v>10000.000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2022-06-02T09:02:13+09:00</v>
+      </c>
+      <c r="B43" t="str">
+        <v>ask</v>
+      </c>
+      <c r="C43" t="str">
+        <v>4850.0</v>
+      </c>
+      <c r="D43" t="str">
+        <v>9690.310</v>
+      </c>
+      <c r="E43" t="str">
+        <v>-408.142</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AU43"/>
   </ignoredErrors>
 </worksheet>
 </file>